--- a/Prototypes/Mungbean/OldValidationObserved.xlsx
+++ b/Prototypes/Mungbean/OldValidationObserved.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C70C3FB-2631-43D3-B8B3-80DEBA62FDF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3444C8-6086-48B8-A12D-0DD3BCB3D44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Soybean.Pod.Wt</t>
   </si>
   <si>
-    <t>Soybean.Shell.HarvestIndex</t>
-  </si>
-  <si>
     <t>Soybean.Leaf.SpecificArea</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>Yield</t>
+  </si>
+  <si>
+    <t>Soybean.Grain.HarvestIndex</t>
   </si>
 </sst>
 </file>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2E7FC-FD6A-4E08-82FF-69FDC035C8DB}">
   <dimension ref="A1:AA113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -804,13 +804,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -828,54 +828,54 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4">
         <v>33370</v>
@@ -887,7 +887,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="3">
         <v>230.66</v>
@@ -930,7 +930,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="3">
         <v>40</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>33370</v>
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1">
         <v>205.71</v>
@@ -994,7 +994,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z3" s="1">
         <v>40</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8">
         <v>34354</v>
@@ -1013,7 +1013,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="3">
         <v>105.75</v>
@@ -1045,7 +1045,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z4" s="9">
         <v>47</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="8">
         <v>34373</v>
@@ -1066,7 +1066,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3">
         <v>113.99988599999999</v>
@@ -1098,7 +1098,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z5" s="9">
         <v>45</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="8">
         <v>34390</v>
@@ -1119,7 +1119,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3">
         <v>113.99988599999999</v>
@@ -1151,7 +1151,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="9">
         <v>39</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="8">
         <v>34414</v>
@@ -1172,7 +1172,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3">
         <v>96.333236999999997</v>
@@ -1204,7 +1204,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z7" s="9">
         <v>38</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="8">
         <v>34354</v>
@@ -1225,7 +1225,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3">
         <v>69.75</v>
@@ -1257,7 +1257,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z8" s="9">
         <v>46</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8">
         <v>34373</v>
@@ -1278,7 +1278,7 @@
         <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3">
         <v>116.33321699999999</v>
@@ -1310,7 +1310,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z9" s="9">
         <v>45</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="8">
         <v>34390</v>
@@ -1331,7 +1331,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3">
         <v>132.333201</v>
@@ -1363,7 +1363,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z10" s="9">
         <v>39</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="8">
         <v>34414</v>
@@ -1384,7 +1384,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3">
         <v>131.333202</v>
@@ -1416,7 +1416,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z11" s="9">
         <v>38</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="8">
         <v>34424</v>
@@ -1437,7 +1437,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3">
         <v>93.999905999999996</v>
@@ -1469,7 +1469,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z12" s="9">
         <v>39</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8">
         <v>34450</v>
@@ -1490,7 +1490,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3">
         <v>115.33321799999999</v>
@@ -1522,7 +1522,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="9">
         <v>62</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
         <v>34436</v>
@@ -1545,7 +1545,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3">
         <v>84.47999999999999</v>
@@ -1577,14 +1577,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4">
         <v>34444</v>
@@ -1596,7 +1596,7 @@
         <v>130</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="3">
         <v>33.4</v>
@@ -1628,14 +1628,14 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="4">
         <v>34417</v>
@@ -1647,7 +1647,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3">
         <v>78.3</v>
@@ -1679,14 +1679,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="4">
         <v>34413</v>
@@ -1698,7 +1698,7 @@
         <v>108</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3">
         <v>161.9</v>
@@ -1730,14 +1730,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4">
         <v>34398</v>
@@ -1749,7 +1749,7 @@
         <v>99</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3">
         <v>96.8</v>
@@ -1781,14 +1781,14 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="4">
         <v>34410</v>
@@ -1800,7 +1800,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3">
         <v>140.1</v>
@@ -1832,14 +1832,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="4">
         <v>34432</v>
@@ -1851,7 +1851,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="3">
         <v>132</v>
@@ -1883,14 +1883,14 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="4">
         <v>34437</v>
@@ -1902,7 +1902,7 @@
         <v>132</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3">
         <v>59</v>
@@ -1934,14 +1934,14 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4">
         <v>34414</v>
@@ -1953,7 +1953,7 @@
         <v>109</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="3">
         <v>85.6</v>
@@ -1985,14 +1985,14 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="4">
         <v>32946</v>
@@ -2004,7 +2004,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3">
         <v>223.4</v>
@@ -2036,14 +2036,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="4">
         <v>33324</v>
@@ -2055,7 +2055,7 @@
         <v>87</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="15">
         <v>126.11111111111111</v>
@@ -2082,14 +2082,14 @@
       <c r="W24" s="15"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="4">
         <v>33329</v>
@@ -2101,7 +2101,7 @@
         <v>92</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="15">
         <v>212.32638888888886</v>
@@ -2128,14 +2128,14 @@
       <c r="W25" s="15"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="4">
         <v>32241</v>
@@ -2143,7 +2143,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
       <c r="E26" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="1">
         <v>137.9</v>
@@ -2170,14 +2170,14 @@
       <c r="W26" s="1"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4">
         <v>32261</v>
@@ -2185,7 +2185,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="14"/>
       <c r="E27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="1">
         <v>97.6</v>
@@ -2212,14 +2212,14 @@
       <c r="W27" s="1"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4">
         <v>32278</v>
@@ -2227,7 +2227,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="14"/>
       <c r="E28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="1">
         <v>117.6</v>
@@ -2254,14 +2254,14 @@
       <c r="W28" s="1"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4">
         <v>32261</v>
@@ -2269,7 +2269,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="14"/>
       <c r="E29" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="1">
         <v>133.4</v>
@@ -2296,14 +2296,14 @@
       <c r="W29" s="1"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4">
         <v>32278</v>
@@ -2311,7 +2311,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="14"/>
       <c r="E30" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="1">
         <v>132.69999999999999</v>
@@ -2338,14 +2338,14 @@
       <c r="W30" s="1"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4">
         <v>32241</v>
@@ -2353,7 +2353,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
       <c r="E31" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="1">
         <v>179</v>
@@ -2380,14 +2380,14 @@
       <c r="W31" s="1"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4">
         <v>32261</v>
@@ -2395,7 +2395,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
       <c r="E32" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="1">
         <v>152.4</v>
@@ -2422,14 +2422,14 @@
       <c r="W32" s="1"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="4">
         <v>32278</v>
@@ -2437,7 +2437,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
       <c r="E33" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="1">
         <v>132.69999999999999</v>
@@ -2464,14 +2464,14 @@
       <c r="W33" s="1"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="4">
         <v>32226</v>
@@ -2479,7 +2479,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="14"/>
       <c r="E34" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="15">
         <v>115.9</v>
@@ -2506,14 +2506,14 @@
       <c r="W34" s="15"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4">
         <v>32226</v>
@@ -2521,7 +2521,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="15">
         <v>151.1</v>
@@ -2548,14 +2548,14 @@
       <c r="W35" s="15"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4">
         <v>32226</v>
@@ -2563,7 +2563,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="15"/>
       <c r="E36" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="15">
         <v>168.6</v>
@@ -2590,14 +2590,14 @@
       <c r="W36" s="15"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4">
         <v>32241</v>
@@ -2605,7 +2605,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="15">
         <v>84</v>
@@ -2632,14 +2632,14 @@
       <c r="W37" s="15"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="4">
         <v>32241</v>
@@ -2647,7 +2647,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="15">
         <v>100.6</v>
@@ -2674,14 +2674,14 @@
       <c r="W38" s="15"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4">
         <v>32241</v>
@@ -2689,7 +2689,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
       <c r="E39" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="15">
         <v>87.3</v>
@@ -2716,14 +2716,14 @@
       <c r="W39" s="15"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40" s="4">
         <v>32241</v>
@@ -2731,7 +2731,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
       <c r="E40" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="15">
         <v>102.7</v>
@@ -2758,14 +2758,14 @@
       <c r="W40" s="15"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="4">
         <v>32241</v>
@@ -2773,7 +2773,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
       <c r="E41" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="15">
         <v>100.6</v>
@@ -2800,14 +2800,14 @@
       <c r="W41" s="15"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="4">
         <v>32241</v>
@@ -2815,7 +2815,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="15">
         <v>93.4</v>
@@ -2842,14 +2842,14 @@
       <c r="W42" s="15"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4">
         <v>28194</v>
@@ -2857,7 +2857,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="14"/>
       <c r="E43" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="15">
         <v>102</v>
@@ -2889,14 +2889,14 @@
       <c r="W43" s="15"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4">
         <v>28194</v>
@@ -2904,7 +2904,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="14"/>
       <c r="E44" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="15">
         <v>48</v>
@@ -2936,14 +2936,14 @@
       <c r="W44" s="15"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="4">
         <v>28193</v>
@@ -2951,7 +2951,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="14"/>
       <c r="E45" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="15">
         <v>64</v>
@@ -2983,14 +2983,14 @@
       <c r="W45" s="15"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="4">
         <v>28591</v>
@@ -2998,7 +2998,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="15">
         <v>116</v>
@@ -3030,14 +3030,14 @@
       <c r="W46" s="15"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="4">
         <v>28591</v>
@@ -3045,7 +3045,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="15"/>
       <c r="E47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="15">
         <v>37</v>
@@ -3077,14 +3077,14 @@
       <c r="W47" s="15"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="4">
         <v>28591</v>
@@ -3092,7 +3092,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="15"/>
       <c r="E48" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="15">
         <v>87</v>
@@ -3124,14 +3124,14 @@
       <c r="W48" s="15"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B49" s="4">
         <v>29400</v>
@@ -3139,7 +3139,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="1">
         <v>250</v>
@@ -3166,7 +3166,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="3">
         <v>36</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B50" s="4">
         <v>29400</v>
@@ -3185,7 +3185,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="1">
         <v>163</v>
@@ -3212,7 +3212,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z50" s="3">
         <v>35</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="4">
         <v>29400</v>
@@ -3231,7 +3231,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="1">
         <v>97</v>
@@ -3258,7 +3258,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z51" s="3">
         <v>38</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="4">
         <v>29312</v>
@@ -3277,7 +3277,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="1">
         <v>147</v>
@@ -3309,14 +3309,14 @@
       <c r="W52" s="1"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="4">
         <v>29312</v>
@@ -3324,7 +3324,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="1">
         <v>135</v>
@@ -3356,14 +3356,14 @@
       <c r="W53" s="1"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="4">
         <v>29312</v>
@@ -3371,7 +3371,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="1">
         <v>151</v>
@@ -3403,14 +3403,14 @@
       <c r="W54" s="1"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="4">
         <v>29312</v>
@@ -3418,7 +3418,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" s="1">
         <v>140</v>
@@ -3450,14 +3450,14 @@
       <c r="W55" s="1"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="4">
         <v>29312</v>
@@ -3465,7 +3465,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F56" s="1">
         <v>161</v>
@@ -3497,14 +3497,14 @@
       <c r="W56" s="1"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4">
         <v>28171</v>
@@ -3512,7 +3512,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="14"/>
       <c r="E57" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F57" s="15">
         <v>103</v>
@@ -3539,14 +3539,14 @@
       <c r="W57" s="15"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4">
         <v>28239</v>
@@ -3554,7 +3554,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F58" s="15">
         <v>167</v>
@@ -3581,14 +3581,14 @@
       <c r="W58" s="15"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="4">
         <v>28239</v>
@@ -3596,7 +3596,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F59" s="15">
         <v>129</v>
@@ -3623,14 +3623,14 @@
       <c r="W59" s="15"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="4">
         <v>28239</v>
@@ -3638,7 +3638,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F60" s="15">
         <v>146</v>
@@ -3665,14 +3665,14 @@
       <c r="W60" s="15"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="4">
         <v>28171</v>
@@ -3680,7 +3680,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="14"/>
       <c r="E61" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F61" s="15">
         <v>108</v>
@@ -3707,14 +3707,14 @@
       <c r="W61" s="15"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="4">
         <v>28171</v>
@@ -3722,7 +3722,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="14"/>
       <c r="E62" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F62" s="15">
         <v>116</v>
@@ -3749,14 +3749,14 @@
       <c r="W62" s="15"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="4">
         <v>28171</v>
@@ -3764,7 +3764,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="14"/>
       <c r="E63" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F63" s="15">
         <v>108</v>
@@ -3791,14 +3791,14 @@
       <c r="W63" s="15"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="4">
         <v>28200</v>
@@ -3806,7 +3806,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="14"/>
       <c r="E64" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F64" s="15">
         <v>122</v>
@@ -3833,14 +3833,14 @@
       <c r="W64" s="15"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:27">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B65" s="4">
         <v>28200</v>
@@ -3848,7 +3848,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="14"/>
       <c r="E65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F65" s="15">
         <v>91</v>
@@ -3875,14 +3875,14 @@
       <c r="W65" s="15"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:27">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="4">
         <v>28200</v>
@@ -3890,7 +3890,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="14"/>
       <c r="E66" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F66" s="15">
         <v>102</v>
@@ -3917,14 +3917,14 @@
       <c r="W66" s="15"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:27">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B67" s="4">
         <v>28200</v>
@@ -3932,7 +3932,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="14"/>
       <c r="E67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F67" s="15">
         <v>110</v>
@@ -3959,14 +3959,14 @@
       <c r="W67" s="15"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:27">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="4">
         <v>28239</v>
@@ -3974,7 +3974,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="14"/>
       <c r="E68" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F68" s="15">
         <v>122</v>
@@ -4001,14 +4001,14 @@
       <c r="W68" s="15"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:27">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="4">
         <v>32970</v>
@@ -4018,7 +4018,7 @@
         <v>80</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F69" s="1">
         <v>255.86232461632574</v>
@@ -4080,7 +4080,7 @@
         <v>0.97816440232504842</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>

--- a/Prototypes/Mungbean/OldValidationObserved.xlsx
+++ b/Prototypes/Mungbean/OldValidationObserved.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3444C8-6086-48B8-A12D-0DD3BCB3D44F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2787BC3C-284F-47A7-9FB9-24B1631041D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="122">
   <si>
     <t>SimulationName</t>
   </si>
@@ -357,6 +357,48 @@
   </si>
   <si>
     <t>Soybean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Emerald2009SowWiderf</t>
+  </si>
+  <si>
+    <t>Emerald2009SowNarrowrf</t>
+  </si>
+  <si>
+    <t>Emerald2009SowWide</t>
+  </si>
+  <si>
+    <t>Emerald2009SowNarrow</t>
+  </si>
+  <si>
+    <t>RadiationIntercepted</t>
+  </si>
+  <si>
+    <t>Hermitage2009SowWide</t>
+  </si>
+  <si>
+    <t>Hermitage2009SowNarrow</t>
+  </si>
+  <si>
+    <t>Biloela2009SowWiderf</t>
+  </si>
+  <si>
+    <t>Biloela2009SowNarrowrf</t>
+  </si>
+  <si>
+    <t>Biloela2009SowWide</t>
+  </si>
+  <si>
+    <t>Biloela2009SowNarrow</t>
+  </si>
+  <si>
+    <t>Kingaroy2009SowWide</t>
+  </si>
+  <si>
+    <t>Kingaroy2009SowNarrow</t>
+  </si>
+  <si>
+    <t>RadiationInterceptedError</t>
   </si>
 </sst>
 </file>
@@ -438,7 +480,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,6 +503,8 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -779,18 +823,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E2E7FC-FD6A-4E08-82FF-69FDC035C8DB}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,8 +919,14 @@
       <c r="AA1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -937,7 +990,7 @@
       </c>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1001,7 +1054,7 @@
       </c>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -1054,7 +1107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1107,7 +1160,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -1160,7 +1213,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1213,7 +1266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1266,7 +1319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1319,7 +1372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1425,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1425,7 +1478,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1478,7 +1531,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,7 +1635,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1633,7 +1686,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -3838,7 +3891,7 @@
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:29">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
@@ -3880,7 +3933,7 @@
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:29">
       <c r="A66" s="1" t="s">
         <v>100</v>
       </c>
@@ -3922,7 +3975,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:29">
       <c r="A67" s="1" t="s">
         <v>101</v>
       </c>
@@ -3964,7 +4017,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:29">
       <c r="A68" s="1" t="s">
         <v>102</v>
       </c>
@@ -4006,7 +4059,7 @@
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:29">
       <c r="A69" s="1" t="s">
         <v>103</v>
       </c>
@@ -4085,241 +4138,421 @@
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
     </row>
-    <row r="70" spans="1:27">
-      <c r="A70" s="3"/>
+    <row r="70" spans="1:29">
+      <c r="A70" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B70" s="8"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="H70" s="15"/>
+      <c r="E70" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G70">
+        <v>809</v>
+      </c>
+      <c r="H70" s="15">
+        <v>2683</v>
+      </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="W70" s="15"/>
     </row>
-    <row r="71" spans="1:27">
-      <c r="A71" s="3"/>
+    <row r="71" spans="1:29">
+      <c r="A71" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="B71" s="8"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="H71" s="15"/>
+      <c r="E71" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71">
+        <v>728</v>
+      </c>
+      <c r="H71" s="15">
+        <v>2435</v>
+      </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
       <c r="W71" s="15"/>
     </row>
-    <row r="72" spans="1:27">
-      <c r="A72" s="3"/>
+    <row r="72" spans="1:29">
+      <c r="A72" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="B72" s="8"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="H72" s="15"/>
+      <c r="E72" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G72">
+        <v>906</v>
+      </c>
+      <c r="H72" s="15">
+        <v>2674</v>
+      </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
       <c r="L72" s="15"/>
       <c r="W72" s="15"/>
     </row>
-    <row r="73" spans="1:27">
-      <c r="A73" s="3"/>
+    <row r="73" spans="1:29">
+      <c r="A73" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="B73" s="8"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="H73" s="15"/>
+      <c r="E73" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G73">
+        <v>1022</v>
+      </c>
+      <c r="H73" s="15">
+        <v>2908</v>
+      </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
       <c r="K73" s="15"/>
       <c r="L73" s="15"/>
       <c r="W73" s="15"/>
     </row>
-    <row r="74" spans="1:27">
-      <c r="A74" s="3"/>
+    <row r="74" spans="1:29">
+      <c r="A74" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="B74" s="8"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="H74" s="15"/>
+      <c r="E74" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G74">
+        <v>1931</v>
+      </c>
+      <c r="H74" s="15">
+        <v>6688</v>
+      </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
       <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
+      <c r="L74" s="17"/>
       <c r="W74" s="15"/>
     </row>
-    <row r="75" spans="1:27">
-      <c r="A75" s="3"/>
+    <row r="75" spans="1:29">
+      <c r="A75" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="B75" s="8"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="H75" s="15"/>
+      <c r="E75" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G75">
+        <v>2125</v>
+      </c>
+      <c r="H75" s="15">
+        <v>5000</v>
+      </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
+      <c r="L75" s="17"/>
       <c r="W75" s="15"/>
     </row>
-    <row r="76" spans="1:27">
-      <c r="A76" s="3"/>
-      <c r="B76" s="8"/>
+    <row r="76" spans="1:29">
+      <c r="A76" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="17">
+        <v>40234</v>
+      </c>
       <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="D76" s="15">
+        <v>64</v>
+      </c>
       <c r="E76" s="15"/>
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="15"/>
       <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
+      <c r="L76" s="17"/>
       <c r="W76" s="15"/>
-    </row>
-    <row r="77" spans="1:27">
-      <c r="A77" s="3"/>
-      <c r="B77" s="8"/>
+      <c r="AB76">
+        <v>83.104395604395592</v>
+      </c>
+      <c r="AC76">
+        <v>8.3791208791209044</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" s="17">
+        <v>40234</v>
+      </c>
       <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
+      <c r="D77" s="15">
+        <v>64</v>
+      </c>
       <c r="E77" s="15"/>
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="15"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
+      <c r="L77" s="17"/>
       <c r="W77" s="15"/>
-    </row>
-    <row r="78" spans="1:27">
-      <c r="A78" s="3"/>
+      <c r="AB77">
+        <v>93.681318681318601</v>
+      </c>
+      <c r="AC77">
+        <v>5.9752747252747538</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="B78" s="8"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="H78" s="15"/>
+      <c r="E78" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G78">
+        <v>1293</v>
+      </c>
+      <c r="H78" s="15">
+        <v>3662</v>
+      </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
       <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
+      <c r="L78" s="17"/>
       <c r="W78" s="15"/>
     </row>
-    <row r="79" spans="1:27">
-      <c r="A79" s="3"/>
+    <row r="79" spans="1:29">
+      <c r="A79" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="B79" s="8"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="H79" s="15"/>
+      <c r="E79" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G79">
+        <v>1758</v>
+      </c>
+      <c r="H79" s="15">
+        <v>4919</v>
+      </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
       <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
+      <c r="L79" s="17"/>
       <c r="W79" s="15"/>
     </row>
-    <row r="80" spans="1:27">
-      <c r="A80" s="3"/>
+    <row r="80" spans="1:29">
+      <c r="A80" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="B80" s="8"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="H80" s="15"/>
+      <c r="E80" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G80">
+        <v>1372</v>
+      </c>
+      <c r="H80" s="15">
+        <v>3949</v>
+      </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
       <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
+      <c r="L80" s="17"/>
       <c r="W80" s="15"/>
     </row>
-    <row r="81" spans="1:23">
-      <c r="A81" s="3"/>
+    <row r="81" spans="1:29">
+      <c r="A81" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="B81" s="8"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="H81" s="15"/>
+      <c r="E81" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81">
+        <v>1744</v>
+      </c>
+      <c r="H81" s="15">
+        <v>5019</v>
+      </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
       <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
+      <c r="L81" s="17"/>
       <c r="W81" s="15"/>
     </row>
-    <row r="82" spans="1:23">
-      <c r="A82" s="3"/>
-      <c r="B82" s="8"/>
+    <row r="82" spans="1:29">
+      <c r="A82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="17">
+        <v>40268</v>
+      </c>
       <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
+      <c r="D82" s="15">
+        <v>51</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
+      <c r="L82" s="17"/>
       <c r="W82" s="15"/>
-    </row>
-    <row r="83" spans="1:23">
-      <c r="A83" s="3"/>
-      <c r="B83" s="8"/>
+      <c r="AB82">
+        <v>64.835164835164804</v>
+      </c>
+      <c r="AC82">
+        <v>7.6923076923076987</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="17">
+        <v>40268</v>
+      </c>
       <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
+      <c r="D83" s="15">
+        <v>51</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
+      <c r="L83" s="17"/>
       <c r="W83" s="15"/>
-    </row>
-    <row r="84" spans="1:23">
-      <c r="A84" s="3"/>
-      <c r="B84" s="8"/>
+      <c r="AB83">
+        <v>93.543956043956001</v>
+      </c>
+      <c r="AC83">
+        <v>2.4038461538461506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" s="17">
+        <v>40268</v>
+      </c>
       <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
+      <c r="D84" s="15">
+        <v>51</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
+      <c r="L84" s="17"/>
       <c r="W84" s="15"/>
-    </row>
-    <row r="85" spans="1:23">
-      <c r="A85" s="3"/>
-      <c r="B85" s="8"/>
+      <c r="AB84">
+        <v>64.835164835164804</v>
+      </c>
+      <c r="AC84">
+        <v>7.6923076923076987</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="17">
+        <v>40268</v>
+      </c>
       <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
+      <c r="D85" s="15">
+        <v>51</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
+      <c r="L85" s="17"/>
       <c r="W85" s="15"/>
-    </row>
-    <row r="86" spans="1:23">
-      <c r="A86" s="3"/>
+      <c r="AB85">
+        <v>93.543956043956001</v>
+      </c>
+      <c r="AC85">
+        <v>2.4038461538461506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="B86" s="8"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="E86" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G86">
+        <v>1581</v>
+      </c>
+      <c r="H86" s="15">
+        <v>4927</v>
+      </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
+      <c r="L86" s="17"/>
       <c r="W86" s="15"/>
     </row>
-    <row r="87" spans="1:23">
-      <c r="A87" s="3"/>
+    <row r="87" spans="1:29">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="B87" s="8"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="E87" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87">
+        <v>1911</v>
+      </c>
+      <c r="H87" s="15">
+        <v>5940</v>
+      </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
+      <c r="L87" s="17"/>
       <c r="W87" s="15"/>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:29">
       <c r="A88" s="3"/>
       <c r="B88" s="8"/>
       <c r="C88" s="15"/>
@@ -4329,10 +4562,10 @@
       <c r="I88" s="15"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
+      <c r="L88" s="17"/>
       <c r="W88" s="15"/>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:29">
       <c r="A89" s="3"/>
       <c r="B89" s="8"/>
       <c r="C89" s="15"/>
@@ -4342,10 +4575,10 @@
       <c r="I89" s="15"/>
       <c r="J89" s="15"/>
       <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
+      <c r="L89" s="17"/>
       <c r="W89" s="15"/>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:29">
       <c r="A90" s="3"/>
       <c r="B90" s="8"/>
       <c r="C90" s="15"/>
@@ -4355,10 +4588,10 @@
       <c r="I90" s="15"/>
       <c r="J90" s="15"/>
       <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="W90" s="15"/>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="L90" s="17"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:29">
       <c r="A91" s="3"/>
       <c r="B91" s="8"/>
       <c r="C91" s="15"/>
@@ -4368,10 +4601,10 @@
       <c r="I91" s="15"/>
       <c r="J91" s="15"/>
       <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
+      <c r="L91" s="17"/>
       <c r="W91" s="15"/>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:29">
       <c r="A92" s="3"/>
       <c r="B92" s="8"/>
       <c r="C92" s="15"/>
@@ -4381,10 +4614,10 @@
       <c r="I92" s="15"/>
       <c r="J92" s="15"/>
       <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
+      <c r="L92" s="17"/>
       <c r="W92" s="15"/>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:29">
       <c r="A93" s="3"/>
       <c r="B93" s="8"/>
       <c r="C93" s="15"/>
@@ -4394,10 +4627,10 @@
       <c r="I93" s="15"/>
       <c r="J93" s="15"/>
       <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
+      <c r="L93" s="17"/>
       <c r="W93" s="15"/>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:29">
       <c r="A94" s="3"/>
       <c r="B94" s="8"/>
       <c r="C94" s="15"/>
@@ -4407,10 +4640,10 @@
       <c r="I94" s="15"/>
       <c r="J94" s="15"/>
       <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="L94" s="17"/>
+      <c r="W94" s="15"/>
+    </row>
+    <row r="95" spans="1:29">
       <c r="A95" s="3"/>
       <c r="B95" s="8"/>
       <c r="C95" s="15"/>
@@ -4420,10 +4653,10 @@
       <c r="I95" s="15"/>
       <c r="J95" s="15"/>
       <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
+      <c r="L95" s="17"/>
       <c r="W95" s="15"/>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:29">
       <c r="A96" s="3"/>
       <c r="B96" s="8"/>
       <c r="C96" s="15"/>
@@ -4433,7 +4666,7 @@
       <c r="I96" s="15"/>
       <c r="J96" s="15"/>
       <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
+      <c r="L96" s="17"/>
       <c r="W96" s="15"/>
     </row>
     <row r="97" spans="1:23">
@@ -4446,7 +4679,7 @@
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
       <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
+      <c r="L97" s="17"/>
       <c r="W97" s="15"/>
     </row>
     <row r="98" spans="1:23">
@@ -4459,7 +4692,7 @@
       <c r="I98" s="15"/>
       <c r="J98" s="15"/>
       <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
+      <c r="L98" s="17"/>
       <c r="W98" s="15"/>
     </row>
     <row r="99" spans="1:23">
@@ -4472,7 +4705,7 @@
       <c r="I99" s="15"/>
       <c r="J99" s="15"/>
       <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
+      <c r="L99" s="17"/>
       <c r="W99" s="15"/>
     </row>
     <row r="100" spans="1:23">
@@ -4485,7 +4718,7 @@
       <c r="I100" s="15"/>
       <c r="J100" s="15"/>
       <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
+      <c r="L100" s="17"/>
       <c r="W100" s="15"/>
     </row>
     <row r="101" spans="1:23">
@@ -4498,7 +4731,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="15"/>
       <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
+      <c r="L101" s="17"/>
       <c r="W101" s="15"/>
     </row>
     <row r="102" spans="1:23">
@@ -4511,7 +4744,7 @@
       <c r="I102" s="15"/>
       <c r="J102" s="15"/>
       <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
+      <c r="L102" s="17"/>
       <c r="W102" s="15"/>
     </row>
     <row r="103" spans="1:23">
@@ -4524,7 +4757,7 @@
       <c r="I103" s="15"/>
       <c r="J103" s="15"/>
       <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
+      <c r="L103" s="17"/>
       <c r="W103" s="15"/>
     </row>
     <row r="104" spans="1:23">
@@ -4537,7 +4770,7 @@
       <c r="I104" s="15"/>
       <c r="J104" s="15"/>
       <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
+      <c r="L104" s="17"/>
       <c r="W104" s="15"/>
     </row>
     <row r="105" spans="1:23">
@@ -4550,7 +4783,7 @@
       <c r="I105" s="15"/>
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
+      <c r="L105" s="17"/>
       <c r="W105" s="15"/>
     </row>
     <row r="106" spans="1:23">
@@ -4563,7 +4796,7 @@
       <c r="I106" s="15"/>
       <c r="J106" s="15"/>
       <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
+      <c r="L106" s="17"/>
       <c r="W106" s="15"/>
     </row>
     <row r="107" spans="1:23">
@@ -4576,7 +4809,7 @@
       <c r="I107" s="15"/>
       <c r="J107" s="15"/>
       <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
+      <c r="L107" s="17"/>
       <c r="W107" s="15"/>
     </row>
     <row r="108" spans="1:23">
@@ -4589,7 +4822,7 @@
       <c r="I108" s="15"/>
       <c r="J108" s="15"/>
       <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
+      <c r="L108" s="17"/>
       <c r="W108" s="15"/>
     </row>
     <row r="109" spans="1:23">
@@ -4602,62 +4835,95 @@
       <c r="I109" s="15"/>
       <c r="J109" s="15"/>
       <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
+      <c r="L109" s="17"/>
       <c r="W109" s="15"/>
     </row>
     <row r="110" spans="1:23">
-      <c r="A110" s="3"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="W110" s="15"/>
+      <c r="L110" s="17"/>
     </row>
     <row r="111" spans="1:23">
-      <c r="A111" s="3"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="W111" s="15"/>
+      <c r="L111" s="17"/>
     </row>
     <row r="112" spans="1:23">
-      <c r="A112" s="3"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="W112" s="15"/>
-    </row>
-    <row r="113" spans="1:23">
-      <c r="A113" s="3"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="W113" s="15"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="12:12">
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="12:12">
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="12:12">
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="12:12">
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="12:12">
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="12:12">
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="12:12">
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="12:12">
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="12:12">
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="12:12">
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="12:12">
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="12:12">
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="12:12">
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="12:12">
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="12:12">
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="12:12">
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="12:12">
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="12:12">
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="12:12">
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="12:12">
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="12:12">
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="12:12">
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="12:12">
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="12:12">
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="12:12">
+      <c r="L137" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prototypes/Mungbean/OldValidationObserved.xlsx
+++ b/Prototypes/Mungbean/OldValidationObserved.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2787BC3C-284F-47A7-9FB9-24B1631041D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C399156-A1D1-468A-A61D-5D755CE0090E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
   </bookViews>
@@ -826,8 +826,8 @@
   <dimension ref="A1:AC137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4152,7 +4152,7 @@
         <v>809</v>
       </c>
       <c r="H70" s="15">
-        <v>2683</v>
+        <v>268.3</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
@@ -4174,7 +4174,7 @@
         <v>728</v>
       </c>
       <c r="H71" s="15">
-        <v>2435</v>
+        <v>243.5</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
@@ -4196,7 +4196,7 @@
         <v>906</v>
       </c>
       <c r="H72" s="15">
-        <v>2674</v>
+        <v>267.39999999999998</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
@@ -4218,7 +4218,7 @@
         <v>1022</v>
       </c>
       <c r="H73" s="15">
-        <v>2908</v>
+        <v>290.8</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15"/>
@@ -4240,7 +4240,7 @@
         <v>1931</v>
       </c>
       <c r="H74" s="15">
-        <v>6688</v>
+        <v>668.8</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15"/>
@@ -4262,7 +4262,7 @@
         <v>2125</v>
       </c>
       <c r="H75" s="15">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15"/>
@@ -4334,7 +4334,7 @@
         <v>1293</v>
       </c>
       <c r="H78" s="15">
-        <v>3662</v>
+        <v>366.2</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15"/>
@@ -4356,7 +4356,7 @@
         <v>1758</v>
       </c>
       <c r="H79" s="15">
-        <v>4919</v>
+        <v>491.9</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15"/>
@@ -4378,7 +4378,7 @@
         <v>1372</v>
       </c>
       <c r="H80" s="15">
-        <v>3949</v>
+        <v>394.9</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15"/>
@@ -4400,7 +4400,7 @@
         <v>1744</v>
       </c>
       <c r="H81" s="15">
-        <v>5019</v>
+        <v>501.9</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15"/>
@@ -4522,7 +4522,7 @@
         <v>1581</v>
       </c>
       <c r="H86" s="15">
-        <v>4927</v>
+        <v>492.7</v>
       </c>
       <c r="I86" s="15"/>
       <c r="J86" s="15"/>
@@ -4544,7 +4544,7 @@
         <v>1911</v>
       </c>
       <c r="H87" s="15">
-        <v>5940</v>
+        <v>594</v>
       </c>
       <c r="I87" s="15"/>
       <c r="J87" s="15"/>

--- a/Prototypes/Mungbean/OldValidationObserved.xlsx
+++ b/Prototypes/Mungbean/OldValidationObserved.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C399156-A1D1-468A-A61D-5D755CE0090E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50E855-5A7F-4AAF-861E-D92CF7B11D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
+    <workbookView xWindow="34020" yWindow="7695" windowWidth="20775" windowHeight="11835" xr2:uid="{058C0488-1FD9-4F64-AF6E-B63E9823854A}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -44,69 +44,12 @@
     <t>Clock.Day</t>
   </si>
   <si>
-    <t>Soybean.Phenology.DaysAfterSowing</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Pod.Wt</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.SpecificArea</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.Live.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Shell.NConc</t>
-  </si>
-  <si>
-    <t>Soybean.Leaf.N</t>
-  </si>
-  <si>
-    <t>Soybean.Grain.N</t>
-  </si>
-  <si>
-    <t>Soybean.Stem.N</t>
-  </si>
-  <si>
-    <t>Soybean.Shell.N</t>
-  </si>
-  <si>
-    <t>Soybean.AboveGround.N</t>
-  </si>
-  <si>
     <t>SLN_apsim</t>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Soybean.Phenology.FloweringDAS</t>
-  </si>
-  <si>
-    <t>Soybean.Phenology.MaturityDAS</t>
-  </si>
-  <si>
     <t>aps1SowHigh</t>
   </si>
   <si>
@@ -347,18 +290,12 @@
     <t>RCM_Gatton</t>
   </si>
   <si>
-    <t>Soybean.Phenology.CurrentStageName</t>
-  </si>
-  <si>
     <t>HarvestRipe</t>
   </si>
   <si>
     <t>Yield</t>
   </si>
   <si>
-    <t>Soybean.Grain.HarvestIndex</t>
-  </si>
-  <si>
     <t>Emerald2009SowWiderf</t>
   </si>
   <si>
@@ -399,6 +336,69 @@
   </si>
   <si>
     <t>RadiationInterceptedError</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.DaysAfterSowing</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.CurrentStageName</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.LAI</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Pod.Wt</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.HarvestIndex</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.SpecificArea</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.Live.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Shell.NConc</t>
+  </si>
+  <si>
+    <t>Mungbean.Leaf.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Grain.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Stem.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Shell.N</t>
+  </si>
+  <si>
+    <t>Mungbean.AboveGround.N</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.FloweringDAS</t>
+  </si>
+  <si>
+    <t>Mungbean.Phenology.MaturityDAS</t>
   </si>
 </sst>
 </file>
@@ -827,7 +827,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <selection pane="bottomLeft" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,87 +848,87 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="AB1" s="16" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AC1" s="16" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>33370</v>
@@ -940,7 +940,7 @@
         <v>76</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F2" s="3">
         <v>230.66</v>
@@ -983,7 +983,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="3">
         <v>40</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>33370</v>
@@ -1004,7 +1004,7 @@
         <v>76</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1">
         <v>205.71</v>
@@ -1047,7 +1047,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="1">
         <v>40</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8">
         <v>34354</v>
@@ -1066,7 +1066,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3">
         <v>105.75</v>
@@ -1098,7 +1098,7 @@
       <c r="W4" s="10"/>
       <c r="X4" s="9"/>
       <c r="Y4" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z4" s="9">
         <v>47</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B5" s="8">
         <v>34373</v>
@@ -1119,7 +1119,7 @@
         <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3">
         <v>113.99988599999999</v>
@@ -1151,7 +1151,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="9"/>
       <c r="Y5" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z5" s="9">
         <v>45</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B6" s="8">
         <v>34390</v>
@@ -1172,7 +1172,7 @@
         <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3">
         <v>113.99988599999999</v>
@@ -1204,7 +1204,7 @@
       <c r="W6" s="10"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z6" s="9">
         <v>39</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>34414</v>
@@ -1225,7 +1225,7 @@
         <v>76</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F7" s="3">
         <v>96.333236999999997</v>
@@ -1257,7 +1257,7 @@
       <c r="W7" s="10"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z7" s="9">
         <v>38</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8">
         <v>34354</v>
@@ -1278,7 +1278,7 @@
         <v>77</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F8" s="3">
         <v>69.75</v>
@@ -1310,7 +1310,7 @@
       <c r="W8" s="10"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="9">
         <v>46</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B9" s="8">
         <v>34373</v>
@@ -1331,7 +1331,7 @@
         <v>82</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3">
         <v>116.33321699999999</v>
@@ -1363,7 +1363,7 @@
       <c r="W9" s="10"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z9" s="9">
         <v>45</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="10" spans="1:29">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="8">
         <v>34390</v>
@@ -1384,7 +1384,7 @@
         <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3">
         <v>132.333201</v>
@@ -1416,7 +1416,7 @@
       <c r="W10" s="10"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z10" s="9">
         <v>39</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B11" s="8">
         <v>34414</v>
@@ -1437,7 +1437,7 @@
         <v>76</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3">
         <v>131.333202</v>
@@ -1469,7 +1469,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z11" s="9">
         <v>38</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>34424</v>
@@ -1490,7 +1490,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F12" s="3">
         <v>93.999905999999996</v>
@@ -1522,7 +1522,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="9">
         <v>39</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="13" spans="1:29">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B13" s="8">
         <v>34450</v>
@@ -1543,7 +1543,7 @@
         <v>84</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F13" s="3">
         <v>115.33321799999999</v>
@@ -1575,7 +1575,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z13" s="9">
         <v>62</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>34436</v>
@@ -1598,7 +1598,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3">
         <v>84.47999999999999</v>
@@ -1630,14 +1630,14 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4">
         <v>34444</v>
@@ -1649,7 +1649,7 @@
         <v>130</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F15" s="3">
         <v>33.4</v>
@@ -1681,14 +1681,14 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4">
         <v>34417</v>
@@ -1700,7 +1700,7 @@
         <v>114</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3">
         <v>78.3</v>
@@ -1732,14 +1732,14 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4">
         <v>34413</v>
@@ -1751,7 +1751,7 @@
         <v>108</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F17" s="3">
         <v>161.9</v>
@@ -1783,14 +1783,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B18" s="4">
         <v>34398</v>
@@ -1802,7 +1802,7 @@
         <v>99</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3">
         <v>96.8</v>
@@ -1834,14 +1834,14 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>34410</v>
@@ -1853,7 +1853,7 @@
         <v>103</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3">
         <v>140.1</v>
@@ -1885,14 +1885,14 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4">
         <v>34432</v>
@@ -1904,7 +1904,7 @@
         <v>117</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F20" s="3">
         <v>132</v>
@@ -1936,14 +1936,14 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B21" s="4">
         <v>34437</v>
@@ -1955,7 +1955,7 @@
         <v>132</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F21" s="3">
         <v>59</v>
@@ -1987,14 +1987,14 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B22" s="4">
         <v>34414</v>
@@ -2006,7 +2006,7 @@
         <v>109</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F22" s="3">
         <v>85.6</v>
@@ -2038,14 +2038,14 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4">
         <v>32946</v>
@@ -2057,7 +2057,7 @@
         <v>85</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3">
         <v>223.4</v>
@@ -2089,14 +2089,14 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4">
         <v>33324</v>
@@ -2108,7 +2108,7 @@
         <v>87</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F24" s="15">
         <v>126.11111111111111</v>
@@ -2135,14 +2135,14 @@
       <c r="W24" s="15"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4">
         <v>33329</v>
@@ -2154,7 +2154,7 @@
         <v>92</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F25" s="15">
         <v>212.32638888888886</v>
@@ -2181,14 +2181,14 @@
       <c r="W25" s="15"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B26" s="4">
         <v>32241</v>
@@ -2196,7 +2196,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="14"/>
       <c r="E26" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F26" s="1">
         <v>137.9</v>
@@ -2223,14 +2223,14 @@
       <c r="W26" s="1"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B27" s="4">
         <v>32261</v>
@@ -2238,7 +2238,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="14"/>
       <c r="E27" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1">
         <v>97.6</v>
@@ -2265,14 +2265,14 @@
       <c r="W27" s="1"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B28" s="4">
         <v>32278</v>
@@ -2280,7 +2280,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="14"/>
       <c r="E28" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1">
         <v>117.6</v>
@@ -2307,14 +2307,14 @@
       <c r="W28" s="1"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B29" s="4">
         <v>32261</v>
@@ -2322,7 +2322,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="14"/>
       <c r="E29" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1">
         <v>133.4</v>
@@ -2349,14 +2349,14 @@
       <c r="W29" s="1"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3"/>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>32278</v>
@@ -2364,7 +2364,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="14"/>
       <c r="E30" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1">
         <v>132.69999999999999</v>
@@ -2391,14 +2391,14 @@
       <c r="W30" s="1"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B31" s="4">
         <v>32241</v>
@@ -2406,7 +2406,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="14"/>
       <c r="E31" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1">
         <v>179</v>
@@ -2433,14 +2433,14 @@
       <c r="W31" s="1"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B32" s="4">
         <v>32261</v>
@@ -2448,7 +2448,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="14"/>
       <c r="E32" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F32" s="1">
         <v>152.4</v>
@@ -2475,14 +2475,14 @@
       <c r="W32" s="1"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B33" s="4">
         <v>32278</v>
@@ -2490,7 +2490,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="14"/>
       <c r="E33" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F33" s="1">
         <v>132.69999999999999</v>
@@ -2517,14 +2517,14 @@
       <c r="W33" s="1"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4">
         <v>32226</v>
@@ -2532,7 +2532,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="14"/>
       <c r="E34" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F34" s="15">
         <v>115.9</v>
@@ -2559,14 +2559,14 @@
       <c r="W34" s="15"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4">
         <v>32226</v>
@@ -2574,7 +2574,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="14"/>
       <c r="E35" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F35" s="15">
         <v>151.1</v>
@@ -2601,14 +2601,14 @@
       <c r="W35" s="15"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4">
         <v>32226</v>
@@ -2616,7 +2616,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="15"/>
       <c r="E36" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F36" s="15">
         <v>168.6</v>
@@ -2643,14 +2643,14 @@
       <c r="W36" s="15"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4">
         <v>32241</v>
@@ -2658,7 +2658,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="14"/>
       <c r="E37" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F37" s="15">
         <v>84</v>
@@ -2685,14 +2685,14 @@
       <c r="W37" s="15"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4">
         <v>32241</v>
@@ -2700,7 +2700,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="14"/>
       <c r="E38" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F38" s="15">
         <v>100.6</v>
@@ -2727,14 +2727,14 @@
       <c r="W38" s="15"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B39" s="4">
         <v>32241</v>
@@ -2742,7 +2742,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="14"/>
       <c r="E39" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F39" s="15">
         <v>87.3</v>
@@ -2769,14 +2769,14 @@
       <c r="W39" s="15"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B40" s="4">
         <v>32241</v>
@@ -2784,7 +2784,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="14"/>
       <c r="E40" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F40" s="15">
         <v>102.7</v>
@@ -2811,14 +2811,14 @@
       <c r="W40" s="15"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B41" s="4">
         <v>32241</v>
@@ -2826,7 +2826,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="14"/>
       <c r="E41" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F41" s="15">
         <v>100.6</v>
@@ -2853,14 +2853,14 @@
       <c r="W41" s="15"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" spans="1:27">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B42" s="4">
         <v>32241</v>
@@ -2868,7 +2868,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="14"/>
       <c r="E42" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F42" s="15">
         <v>93.4</v>
@@ -2895,14 +2895,14 @@
       <c r="W42" s="15"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="15" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4">
         <v>28194</v>
@@ -2910,7 +2910,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="14"/>
       <c r="E43" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F43" s="15">
         <v>102</v>
@@ -2942,14 +2942,14 @@
       <c r="W43" s="15"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z43" s="3"/>
       <c r="AA43" s="3"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B44" s="4">
         <v>28194</v>
@@ -2957,7 +2957,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="14"/>
       <c r="E44" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F44" s="15">
         <v>48</v>
@@ -2989,14 +2989,14 @@
       <c r="W44" s="15"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B45" s="4">
         <v>28193</v>
@@ -3004,7 +3004,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="14"/>
       <c r="E45" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F45" s="15">
         <v>64</v>
@@ -3036,14 +3036,14 @@
       <c r="W45" s="15"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B46" s="4">
         <v>28591</v>
@@ -3051,7 +3051,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="14"/>
       <c r="E46" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F46" s="15">
         <v>116</v>
@@ -3083,14 +3083,14 @@
       <c r="W46" s="15"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4">
         <v>28591</v>
@@ -3098,7 +3098,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="15"/>
       <c r="E47" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F47" s="15">
         <v>37</v>
@@ -3130,14 +3130,14 @@
       <c r="W47" s="15"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4">
         <v>28591</v>
@@ -3145,7 +3145,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="15"/>
       <c r="E48" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F48" s="15">
         <v>87</v>
@@ -3177,14 +3177,14 @@
       <c r="W48" s="15"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="15" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4">
         <v>29400</v>
@@ -3192,7 +3192,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F49" s="1">
         <v>250</v>
@@ -3219,7 +3219,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z49" s="3">
         <v>36</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B50" s="4">
         <v>29400</v>
@@ -3238,7 +3238,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F50" s="1">
         <v>163</v>
@@ -3265,7 +3265,7 @@
       <c r="W50" s="1"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z50" s="3">
         <v>35</v>
@@ -3276,7 +3276,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4">
         <v>29400</v>
@@ -3284,7 +3284,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F51" s="1">
         <v>97</v>
@@ -3311,7 +3311,7 @@
       <c r="W51" s="1"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z51" s="3">
         <v>38</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4">
         <v>29312</v>
@@ -3330,7 +3330,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F52" s="1">
         <v>147</v>
@@ -3362,14 +3362,14 @@
       <c r="W52" s="1"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B53" s="4">
         <v>29312</v>
@@ -3377,7 +3377,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F53" s="1">
         <v>135</v>
@@ -3409,14 +3409,14 @@
       <c r="W53" s="1"/>
       <c r="X53" s="3"/>
       <c r="Y53" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4">
         <v>29312</v>
@@ -3424,7 +3424,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F54" s="1">
         <v>151</v>
@@ -3456,14 +3456,14 @@
       <c r="W54" s="1"/>
       <c r="X54" s="3"/>
       <c r="Y54" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B55" s="4">
         <v>29312</v>
@@ -3471,7 +3471,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F55" s="1">
         <v>140</v>
@@ -3503,14 +3503,14 @@
       <c r="W55" s="1"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B56" s="4">
         <v>29312</v>
@@ -3518,7 +3518,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F56" s="1">
         <v>161</v>
@@ -3550,14 +3550,14 @@
       <c r="W56" s="1"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="15" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B57" s="4">
         <v>28171</v>
@@ -3565,7 +3565,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="14"/>
       <c r="E57" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F57" s="15">
         <v>103</v>
@@ -3592,14 +3592,14 @@
       <c r="W57" s="15"/>
       <c r="X57" s="3"/>
       <c r="Y57" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z57" s="3"/>
       <c r="AA57" s="3"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B58" s="4">
         <v>28239</v>
@@ -3607,7 +3607,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="14"/>
       <c r="E58" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F58" s="15">
         <v>167</v>
@@ -3634,14 +3634,14 @@
       <c r="W58" s="15"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z58" s="3"/>
       <c r="AA58" s="3"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B59" s="4">
         <v>28239</v>
@@ -3649,7 +3649,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="14"/>
       <c r="E59" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F59" s="15">
         <v>129</v>
@@ -3676,14 +3676,14 @@
       <c r="W59" s="15"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z59" s="3"/>
       <c r="AA59" s="3"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B60" s="4">
         <v>28239</v>
@@ -3691,7 +3691,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="14"/>
       <c r="E60" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F60" s="15">
         <v>146</v>
@@ -3718,14 +3718,14 @@
       <c r="W60" s="15"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z60" s="3"/>
       <c r="AA60" s="3"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B61" s="4">
         <v>28171</v>
@@ -3733,7 +3733,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="14"/>
       <c r="E61" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F61" s="15">
         <v>108</v>
@@ -3760,14 +3760,14 @@
       <c r="W61" s="15"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z61" s="3"/>
       <c r="AA61" s="3"/>
     </row>
     <row r="62" spans="1:27">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B62" s="4">
         <v>28171</v>
@@ -3775,7 +3775,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="14"/>
       <c r="E62" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F62" s="15">
         <v>116</v>
@@ -3802,14 +3802,14 @@
       <c r="W62" s="15"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z62" s="3"/>
       <c r="AA62" s="3"/>
     </row>
     <row r="63" spans="1:27">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4">
         <v>28171</v>
@@ -3817,7 +3817,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="14"/>
       <c r="E63" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F63" s="15">
         <v>108</v>
@@ -3844,14 +3844,14 @@
       <c r="W63" s="15"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z63" s="3"/>
       <c r="AA63" s="3"/>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B64" s="4">
         <v>28200</v>
@@ -3859,7 +3859,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="14"/>
       <c r="E64" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F64" s="15">
         <v>122</v>
@@ -3886,14 +3886,14 @@
       <c r="W64" s="15"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z64" s="3"/>
       <c r="AA64" s="3"/>
     </row>
     <row r="65" spans="1:29">
       <c r="A65" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B65" s="4">
         <v>28200</v>
@@ -3901,7 +3901,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="14"/>
       <c r="E65" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F65" s="15">
         <v>91</v>
@@ -3928,14 +3928,14 @@
       <c r="W65" s="15"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
     </row>
     <row r="66" spans="1:29">
       <c r="A66" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B66" s="4">
         <v>28200</v>
@@ -3943,7 +3943,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="14"/>
       <c r="E66" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F66" s="15">
         <v>102</v>
@@ -3970,14 +3970,14 @@
       <c r="W66" s="15"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
     <row r="67" spans="1:29">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B67" s="4">
         <v>28200</v>
@@ -3985,7 +3985,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="14"/>
       <c r="E67" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F67" s="15">
         <v>110</v>
@@ -4012,14 +4012,14 @@
       <c r="W67" s="15"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
     <row r="68" spans="1:29">
       <c r="A68" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B68" s="4">
         <v>28239</v>
@@ -4027,7 +4027,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="14"/>
       <c r="E68" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F68" s="15">
         <v>122</v>
@@ -4054,14 +4054,14 @@
       <c r="W68" s="15"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z68" s="3"/>
       <c r="AA68" s="3"/>
     </row>
     <row r="69" spans="1:29">
       <c r="A69" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B69" s="4">
         <v>32970</v>
@@ -4071,7 +4071,7 @@
         <v>80</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F69" s="1">
         <v>255.86232461632574</v>
@@ -4133,20 +4133,20 @@
         <v>0.97816440232504842</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="Z69" s="3"/>
       <c r="AA69" s="3"/>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="3" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G70">
         <v>809</v>
@@ -4162,13 +4162,13 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" s="3" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G71">
         <v>728</v>
@@ -4184,13 +4184,13 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" s="3" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G72">
         <v>906</v>
@@ -4206,13 +4206,13 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G73">
         <v>1022</v>
@@ -4228,13 +4228,13 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G74">
         <v>1931</v>
@@ -4250,13 +4250,13 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G75">
         <v>2125</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B76" s="17">
         <v>40234</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="77" spans="1:29">
       <c r="A77" s="3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B77" s="17">
         <v>40234</v>
@@ -4322,13 +4322,13 @@
     </row>
     <row r="78" spans="1:29">
       <c r="A78" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="15"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G78">
         <v>1293</v>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="79" spans="1:29">
       <c r="A79" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <v>1758</v>
@@ -4366,13 +4366,13 @@
     </row>
     <row r="80" spans="1:29">
       <c r="A80" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G80">
         <v>1372</v>
@@ -4388,13 +4388,13 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="15"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G81">
         <v>1744</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" s="3" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B82" s="17">
         <v>40268</v>
@@ -4435,7 +4435,7 @@
     </row>
     <row r="83" spans="1:29">
       <c r="A83" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B83" s="17">
         <v>40268</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B84" s="17">
         <v>40268</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B85" s="17">
         <v>40268</v>
@@ -4510,13 +4510,13 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" s="3" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G86">
         <v>1581</v>
@@ -4532,13 +4532,13 @@
     </row>
     <row r="87" spans="1:29">
       <c r="A87" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="G87">
         <v>1911</v>
